--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2131949.405489865</v>
+        <v>2129697.325778659</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7740905403531</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>286.4219379548101</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>73.98454765968138</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>206.5922292904579</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0.3107267886856425</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>54.87175400786692</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1779507752273321</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888062</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.76773080618744</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>139.1755959712229</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>76.9503019954242</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>13.42874471570696</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.55695577161283</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458403</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977442</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>140.3829797864967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>104.795004917596</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.67353929277157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713452</v>
       </c>
       <c r="U25" t="n">
-        <v>224.8341963325692</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>41.74133133758716</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>78.68827782033955</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>23.10998325717172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>195.5593521176183</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>20.38427178197973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X40" t="n">
-        <v>42.14967908986335</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>22.10695458833863</v>
+        <v>135.0949745400657</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3907,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>225.6414338000054</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1879.82957821044</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C2" t="n">
-        <v>1510.867061270028</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1152.601362663278</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>766.8131100650335</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>355.8272052754259</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2656.568750250373</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2266.429418274562</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1660.876797592409</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1660.876797592409</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1660.876797592409</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1371.459627555448</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X4" t="n">
-        <v>1143.470076657431</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="Y4" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398575</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>916.6290841382827</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W5" t="n">
-        <v>2828.826251643334</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X5" t="n">
-        <v>2455.360493382254</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.5472171493652</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1258.977812021152</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1030.988261123135</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.195681979605</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>939.4077790033375</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>939.4077790033375</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>553.6195264050932</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>546.6740256558897</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450752</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189672</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213861</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>685.8122911638649</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,19 +4957,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1722.044275313594</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,16 +5036,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5057,7 +5057,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>119.2902967703778</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703778</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311364</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032295</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2404.986360578632</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613761</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,28 +5264,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1425.313279727861</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.520700584331</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
         <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>642.8692823226941</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>473.9330993947872</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>323.8164599824514</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U25" t="n">
-        <v>1817.401535437329</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1562.717047231442</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1273.299877194481</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>1045.310326296464</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>824.5177471529338</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>1031.26032167505</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>862.324138747143</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>712.2074993348073</v>
       </c>
       <c r="E31" t="n">
-        <v>264.0500279773688</v>
+        <v>564.2944057524141</v>
       </c>
       <c r="F31" t="n">
-        <v>117.1600804794585</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>117.1600804794585</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1212.90878650529</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.342122433612</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,7 +7184,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>699.2677182139842</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>530.3315352860773</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>1101.708762187754</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.9161830442239</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.9745311434712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.81829093850881</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016427</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944531</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>127.7255247667947</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.03697526434127</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401537</v>
       </c>
       <c r="U25" t="n">
-        <v>61.35027805667494</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>125.5054897610407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>66.73277020259169</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>90.96364621897271</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X40" t="n">
-        <v>183.5599762991738</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>145.1398665102892</v>
+        <v>32.15184655856214</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>60.54304058923876</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
@@ -26320,34 +26320,34 @@
         <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="I2" t="n">
-        <v>585181.2847752544</v>
-      </c>
       <c r="J2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="K2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.8428831941</v>
+      </c>
+      <c r="C4" t="n">
         <v>92793.84288319404</v>
       </c>
-      <c r="C4" t="n">
-        <v>92793.8428831941</v>
-      </c>
       <c r="D4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184277</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184277</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184268</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184266</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="L4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934217.2460205746</v>
+        <v>-934217.2460205739</v>
       </c>
       <c r="C6" t="n">
-        <v>394527.4997070184</v>
+        <v>394527.499707018</v>
       </c>
       <c r="D6" t="n">
         <v>394527.4997070181</v>
       </c>
       <c r="E6" t="n">
-        <v>145039.4850321483</v>
+        <v>145004.7471067134</v>
       </c>
       <c r="F6" t="n">
-        <v>470451.9468395049</v>
+        <v>470417.2089140686</v>
       </c>
       <c r="G6" t="n">
-        <v>470451.9468395045</v>
+        <v>470417.2089140686</v>
       </c>
       <c r="H6" t="n">
-        <v>470451.9468395047</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="I6" t="n">
-        <v>470451.9468395046</v>
+        <v>470417.208914069</v>
       </c>
       <c r="J6" t="n">
-        <v>252920.7444422272</v>
+        <v>252886.0065167914</v>
       </c>
       <c r="K6" t="n">
-        <v>470451.9468395046</v>
+        <v>470417.2089140686</v>
       </c>
       <c r="L6" t="n">
-        <v>470451.9468395045</v>
+        <v>470417.2089140686</v>
       </c>
       <c r="M6" t="n">
-        <v>385396.9189039925</v>
+        <v>385362.1809785572</v>
       </c>
       <c r="N6" t="n">
-        <v>470451.9468395046</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="O6" t="n">
-        <v>470451.9468395045</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="P6" t="n">
-        <v>470451.9468395045</v>
+        <v>470417.2089140688</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.4988012306545</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>124.4997876986434</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>145.5644016164878</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>19.11742609857922</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.3723148319973</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>294.3692147095461</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.3450475613637</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>73.85778156328857</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>339.9661108572931</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>271.7461296822306</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90.29651910320364</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>238.708898608121</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>150.7833302198372</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>353.3934907042769</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>451.9270028924504</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>397.4049812900382</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>553.3925020622929</v>
       </c>
       <c r="M30" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>320.9147064709964</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778402</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>351.6082511035024</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981975</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597746</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>23.94570355317046</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>219.4190832899467</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>320.5852908091172</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>259.5635423156792</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>414.8381222824187</v>
       </c>
       <c r="M30" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>189.5729943876631</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>520.978616694507</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>217.6338436891722</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>263.67989750701</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
